--- a/testData/mapasCurriculares.xlsx
+++ b/testData/mapasCurriculares.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IIS 2006" sheetId="1" state="visible" r:id="rId2"/>
@@ -150,7 +150,7 @@
     <t xml:space="preserve">Dinamica</t>
   </si>
   <si>
-    <t xml:space="preserve">Pracrica profesional I</t>
+    <t xml:space="preserve">Practica profesional I</t>
   </si>
   <si>
     <t xml:space="preserve">Dibujo y CAD</t>
@@ -585,13 +585,13 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
@@ -802,12 +802,12 @@
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.59"/>
@@ -1084,17 +1084,17 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="53.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="70.38"/>

--- a/testData/mapasCurriculares.xlsx
+++ b/testData/mapasCurriculares.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IIS 2006" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,471 +22,480 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
-  <si>
-    <t xml:space="preserve">Algebra y geometria analitica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra lineal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricidad y magnetismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuitos electricos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalaciones electricas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudio del trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de sistemas productivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planeacion y control de la produccion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion y evaluacion de proyectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logica y filosofia de la ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculo diferencial e integeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculo vectorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuaciones diferenciales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termofluidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenieria de sistemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigacion de operaiones I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercadotecnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planeacion estrategica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etica profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnicas de expresion oral y escrita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quimica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenieria de materiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistencia de materiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilidad y costos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnicas de evaluacion economica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control de calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenieria industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programacion de computadoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procesos de manufactura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antropologia filosofica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas de calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad y estadistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estadistica aplicada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufactura integrada por computadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigacion de operaciones II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practicas profesionales III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduccion a la Ingenieria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinamica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practica profesional I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibujo y CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practicas profesionales II</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
+  <si>
+    <t xml:space="preserve">Algebra y geometria analitica#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra lineal#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricidad y magnetismo#6#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuitos electricos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalaciones electricas#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio del trabajo#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de sistemas productivos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planeacion y control de la produccion#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo empresarial#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion y evaluacion de proyectos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logica y filosofia de la ciencia#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculo diferencial e integral#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculo vectorial#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuaciones diferenciales#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termofluidos#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria de sistemas#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigacion de operaciones I#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercadotecnia#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planeacion estrategica#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etica profesional#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnicas de expresion oral y escrita#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatica#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quimica#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria de materiales#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia de materiales#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidad y costos#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnicas de evaluacion economica#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control de calidad#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanzas#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria industrial#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programacion de computadoras#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesos de manufactura#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antropologia filosofica#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas de calidad#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad y estadistica#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadistica aplicada#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufactura integrada por computadora#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigacion de operaciones II#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practicas profesionales III#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduccion a la Ingenieria#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinamica#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica profesional I#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibujo y CAD#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practicas profesionales II#1</t>
   </si>
   <si>
     <t xml:space="preserve">OPTATIVAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Algebra y Geometria Analítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álgebra Lineal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricidad y Magnetismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuitos Eléctricos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ética Profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optativa I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optativa II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logística y cadena de suministros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultoria empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica y Filosofía de la Ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo Diferencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo Integral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo Multivariable y Vectorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas de Calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistencia de Materiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería Ambiental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigación de Operaciones II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administración Estratégica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos de Desarrollo Empresarial I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos de Desarrollo Empresarial II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnóstico e intervención empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introducción a la Ingeniería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programación de Computadoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad y Estadística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estadística Aplicada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administración del Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procesos de Manufactura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigación de Operaciones I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de Sistemas Productivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planeación y Control de la Producción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computación Aplicada a Procesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufactura Integrada por Computadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administración, contabilidad y Costos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física moderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería de Materiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinámica y Cinemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuaciones Diferenciales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumentación y Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antropología Filosófica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomia, seguridad y salud ocupacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión y Evaluación de Proyectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taller de Formación Profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalaciones Eléctricas e Iluminación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química Básica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de recursos humanos en la Dirección de operaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Métodos Numéricos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas CAD CAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelación y análisis de sistemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Práctica Profesional I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Práctica Profesional II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatización y Servomecanismos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua Extranjera VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optativa III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robótica Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álgebra y geometría analítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estadística aplicada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumentos de presupuestación empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trámites legales y gestión del financiamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inteligencia de negocios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño integral de proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica y filosofía de la ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo diferencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad y estadística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería de materiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negociación y alianzas estratégicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minería de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planeación y control de la producción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computación aplicada a procesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervención consultiva en proyectos de inversión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introducción a la ingeniería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microeconomía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroeconomía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pŕactica profesional I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de recursos humanos en la dirección de operaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de procesos, productos y servicios basados en la innovación tecnológica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inteligencia competitiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química básica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ética profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calidad e innovación empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administración estratégica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos de desarrollo empresarial I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos de desarrollo empresarial II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Práctica profesional II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programación de computadoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua extranjera V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protección tencológica e intelectual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo de nuevos productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taller de formación profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física Moderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estática, Dinámica y Cinemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo Sustentable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bases de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigación de operaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TiC’s en la gestión de la innovación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilidades directivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión y evaluación de proyectos</t>
+    <t xml:space="preserve">Algebra y Geometria Analítica#7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álgebra Lineal#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricidad y Magnetismo#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuitos Eléctricos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ética Profesional#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería financiera#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanzas#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optativa I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optativa II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logística y cadena de suministros#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria empresarial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lógica y Filosofía de la Ciencia#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo Diferencial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo Integral#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo Multivariable y Vectorial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas de Calidad#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia de Materiales#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería Ambiental#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación de Operaciones II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración Estratégica#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópicos de Desarrollo Empresarial I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópicos de Desarrollo Empresarial II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnóstico e intervención empresarial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducción a la Ingeniería#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programación de Computadoras#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad y Estadística# 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadística Aplicada#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración del Mantenimiento#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesos de Manufactura#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación de Operaciones I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de Sistemas Productivos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planeación y Control de la Producción#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computación Aplicada a Procesos#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufactura Integrada por Computadora#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración, contabilidad y Costos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física moderna#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería de Materiales#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinámica y Cinemática#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuaciones Diferenciales#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentación y Control#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antropología Filosófica#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomia, seguridad y salud ocupacional#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión y Evaluación de Proyectos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de Formación Profesional#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalaciones Eléctricas e Iluminación#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química Básica#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estática#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de recursos humanos en la Dirección de operaciones#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera IV#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera V#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métodos Numéricos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas CAD CAM#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelación y análisis de sistemas#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Práctica Profesional I#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Práctica Profesional II#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatización y Servomecanismos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera III#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Extranjera VI#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercadotecnia#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optativa III#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robótica Industrial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álgebra y geometría analítica#7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadística aplicada#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentos de presupuestación empresarial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trámites legales y gestión del financiamiento#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteligencia de negocios#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño integral de proyecto#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lógica y filosofía de la ciencia#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo diferencial#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad y estadística#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería de materiales#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negociación y alianzas estratégicas#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minería de datos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planeación y control de la producción#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computación aplicada a procesos#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervención consultiva en proyectos de inversión#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducción a la ingeniería#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microeconomía#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomía#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesos de manufactura#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pŕactica profesional I#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de recursos humanos en la dirección de operaciones#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de procesos, productos y servicios basados en la innovación tecnológica#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteligencia competitiva#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química básica#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ética profesional#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad e innovación empresarial#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración estratégica#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera VI#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópicos de desarrollo empresarial I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópicos de desarrollo empresarial II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Práctica profesional II#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programación de computadoras#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera I#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera II#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera III#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera IV#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua extranjera V#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protección tencológica e intelectual#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de nuevos productos#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de formación profesional#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física Moderna#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estática, Dinámica y Cinemática#5#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo Sustentable#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases de Datos#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación de operaciones#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiC’s en la gestión de la innovación#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilidades directivas#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión y evaluación de proyectos#4</t>
   </si>
 </sst>
 </file>
@@ -585,11 +594,11 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -600,7 +609,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,11 +807,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.41"/>
@@ -879,191 +888,191 @@
         <v>51</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1085,10 +1094,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.9"/>
@@ -1135,190 +1144,190 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
